--- a/data/pca/factorExposure/factorExposure_2019-02-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1188883481106601</v>
+        <v>-0.07204147357282992</v>
       </c>
       <c r="C2">
-        <v>0.01832818767320064</v>
+        <v>-0.0315295297941147</v>
       </c>
       <c r="D2">
-        <v>0.05345059424546509</v>
+        <v>-0.02210852930130379</v>
       </c>
       <c r="E2">
-        <v>-0.1281424579084998</v>
+        <v>-0.04351016468521843</v>
       </c>
       <c r="F2">
-        <v>0.05430585728725498</v>
+        <v>0.141185745700365</v>
       </c>
       <c r="G2">
-        <v>-0.09527351957374584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1059388232728598</v>
+      </c>
+      <c r="H2">
+        <v>0.05774045647061907</v>
+      </c>
+      <c r="I2">
+        <v>0.04710510006546673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2101920518847114</v>
+        <v>-0.160887518241066</v>
       </c>
       <c r="C3">
-        <v>0.1613619260543926</v>
+        <v>-0.1060367009253836</v>
       </c>
       <c r="D3">
-        <v>-0.02999319645159685</v>
+        <v>0.003469786613410937</v>
       </c>
       <c r="E3">
-        <v>-0.329591526748834</v>
+        <v>0.001006804722007241</v>
       </c>
       <c r="F3">
-        <v>-0.05568884774518215</v>
+        <v>0.3743165926307218</v>
       </c>
       <c r="G3">
-        <v>-0.06590160190359053</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.0837299959065914</v>
+      </c>
+      <c r="H3">
+        <v>0.2724870326505939</v>
+      </c>
+      <c r="I3">
+        <v>0.2483401880916362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09503114603738844</v>
+        <v>-0.0720346103198027</v>
       </c>
       <c r="C4">
-        <v>0.05059526882276323</v>
+        <v>-0.04803238871865313</v>
       </c>
       <c r="D4">
-        <v>0.02614065195257342</v>
+        <v>0.01386973401106278</v>
       </c>
       <c r="E4">
-        <v>-0.07017021771551933</v>
+        <v>-0.04149531167088816</v>
       </c>
       <c r="F4">
-        <v>-0.001605876531449798</v>
+        <v>0.08087205563534586</v>
       </c>
       <c r="G4">
-        <v>-0.04149855580970355</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04447360565438772</v>
+      </c>
+      <c r="H4">
+        <v>0.02501658594333089</v>
+      </c>
+      <c r="I4">
+        <v>0.03746640122838447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01805695958797355</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.01365960328108585</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.005677646542856326</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005817279988354637</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.003977807407470872</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02096017332452098</v>
+      </c>
+      <c r="H6">
+        <v>8.468136466532579e-05</v>
+      </c>
+      <c r="I6">
+        <v>-0.01271287097062289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.03904092640877647</v>
+        <v>-0.03386192905558727</v>
       </c>
       <c r="C7">
-        <v>0.01405190618296212</v>
+        <v>-0.01579429162278274</v>
       </c>
       <c r="D7">
-        <v>0.03197985582578649</v>
+        <v>0.03594945671994531</v>
       </c>
       <c r="E7">
-        <v>-0.07582805487304066</v>
+        <v>-0.02893293103486805</v>
       </c>
       <c r="F7">
-        <v>-0.04086024303862544</v>
+        <v>0.05454722791241215</v>
       </c>
       <c r="G7">
-        <v>0.03969479122411147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006605051581759841</v>
+      </c>
+      <c r="H7">
+        <v>0.04500602793688326</v>
+      </c>
+      <c r="I7">
+        <v>0.009737421713291925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04408996627210876</v>
+        <v>-0.02886376433882315</v>
       </c>
       <c r="C8">
-        <v>0.05733015492771226</v>
+        <v>-0.05031935122481693</v>
       </c>
       <c r="D8">
-        <v>0.003298250798828978</v>
+        <v>0.01245070228408925</v>
       </c>
       <c r="E8">
-        <v>-0.07005935135432757</v>
+        <v>-0.02144150257205947</v>
       </c>
       <c r="F8">
-        <v>-0.01048516417268029</v>
+        <v>0.07100795217057344</v>
       </c>
       <c r="G8">
-        <v>-0.01185965686202772</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01971543998610492</v>
+      </c>
+      <c r="H8">
+        <v>0.04190123308522836</v>
+      </c>
+      <c r="I8">
+        <v>0.04551417343624704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0825521633149347</v>
+        <v>-0.06047559111787427</v>
       </c>
       <c r="C9">
-        <v>0.04446697342396262</v>
+        <v>-0.0422670438584503</v>
       </c>
       <c r="D9">
-        <v>0.03539702471547163</v>
+        <v>0.01767413296684533</v>
       </c>
       <c r="E9">
-        <v>-0.05573769208589762</v>
+        <v>-0.03594320261549333</v>
       </c>
       <c r="F9">
-        <v>-0.01651500023846133</v>
+        <v>0.07990749925146583</v>
       </c>
       <c r="G9">
-        <v>-0.04734929271576035</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04276143673184474</v>
+      </c>
+      <c r="H9">
+        <v>0.02362069434772971</v>
+      </c>
+      <c r="I9">
+        <v>0.01957351446936633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01930455807083343</v>
+        <v>-0.03413114011772505</v>
       </c>
       <c r="C10">
-        <v>-0.1598200638714014</v>
+        <v>0.1534676689313421</v>
       </c>
       <c r="D10">
-        <v>-0.03274359511834792</v>
+        <v>-0.007632106267059503</v>
       </c>
       <c r="E10">
-        <v>-0.0737965958685574</v>
+        <v>0.04116333975066625</v>
       </c>
       <c r="F10">
-        <v>0.01693973249949415</v>
+        <v>0.06903681844999365</v>
       </c>
       <c r="G10">
-        <v>-0.002581024010086854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02575045706008871</v>
+      </c>
+      <c r="H10">
+        <v>0.002231416459268291</v>
+      </c>
+      <c r="I10">
+        <v>0.1052083172800545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05821104714771999</v>
+        <v>-0.04839221558636782</v>
       </c>
       <c r="C11">
-        <v>0.01673638347514558</v>
+        <v>-0.03134291007206493</v>
       </c>
       <c r="D11">
-        <v>-0.006058399415917227</v>
+        <v>-0.00644457388923746</v>
       </c>
       <c r="E11">
-        <v>-0.04371400896777729</v>
+        <v>-0.009978321597440021</v>
       </c>
       <c r="F11">
-        <v>0.009886837978668669</v>
+        <v>0.03999143321968761</v>
       </c>
       <c r="G11">
-        <v>0.004629110293848503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.007665780459411267</v>
+      </c>
+      <c r="H11">
+        <v>0.0001926210140683825</v>
+      </c>
+      <c r="I11">
+        <v>-0.00533475764677742</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.0439901933693992</v>
+        <v>-0.04488848889101981</v>
       </c>
       <c r="C12">
-        <v>0.02034417300351031</v>
+        <v>-0.02817187447391476</v>
       </c>
       <c r="D12">
-        <v>-0.00413585319019743</v>
+        <v>0.00481118939002001</v>
       </c>
       <c r="E12">
-        <v>-0.02749717006288492</v>
+        <v>-0.01156856672954056</v>
       </c>
       <c r="F12">
-        <v>-0.009240258513570146</v>
+        <v>0.01444297570472548</v>
       </c>
       <c r="G12">
-        <v>-0.0008008044854449991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0007271226504517441</v>
+      </c>
+      <c r="H12">
+        <v>0.003788555078301724</v>
+      </c>
+      <c r="I12">
+        <v>-0.004253529403918265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06300973973978241</v>
+        <v>-0.04072152571345952</v>
       </c>
       <c r="C13">
-        <v>0.03107058898862183</v>
+        <v>-0.02671414546288334</v>
       </c>
       <c r="D13">
-        <v>-0.003745317449919406</v>
+        <v>-0.01518322133024238</v>
       </c>
       <c r="E13">
-        <v>-0.109642980070669</v>
+        <v>-0.00975057314943498</v>
       </c>
       <c r="F13">
-        <v>0.007863864318826146</v>
+        <v>0.1046987760291461</v>
       </c>
       <c r="G13">
-        <v>-0.01069293891773171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02330266847869817</v>
+      </c>
+      <c r="H13">
+        <v>0.04292642576079438</v>
+      </c>
+      <c r="I13">
+        <v>0.02223998402283273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03467774407233706</v>
+        <v>-0.02812856142189209</v>
       </c>
       <c r="C14">
-        <v>0.02360547665633587</v>
+        <v>-0.01936510559895947</v>
       </c>
       <c r="D14">
-        <v>0.02649948544514678</v>
+        <v>0.005316862170816912</v>
       </c>
       <c r="E14">
-        <v>-0.03022652823087321</v>
+        <v>-0.02702917252741352</v>
       </c>
       <c r="F14">
-        <v>0.02014584405240754</v>
+        <v>0.04001227752070432</v>
       </c>
       <c r="G14">
-        <v>0.0153745477161879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02358555614976717</v>
+      </c>
+      <c r="H14">
+        <v>0.05330464169836853</v>
+      </c>
+      <c r="I14">
+        <v>0.01041789115237426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04721066356261585</v>
+        <v>-0.04290410195994669</v>
       </c>
       <c r="C16">
-        <v>0.02780034355606696</v>
+        <v>-0.03704856884831946</v>
       </c>
       <c r="D16">
-        <v>-0.006514350248607107</v>
+        <v>-0.001020590036631867</v>
       </c>
       <c r="E16">
-        <v>-0.03469270142928288</v>
+        <v>-0.008345791758186605</v>
       </c>
       <c r="F16">
-        <v>-0.002626078883371501</v>
+        <v>0.03588276151902296</v>
       </c>
       <c r="G16">
-        <v>0.008373661468955997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.004366039361267159</v>
+      </c>
+      <c r="H16">
+        <v>0.006453876522964437</v>
+      </c>
+      <c r="I16">
+        <v>-0.003713191465151133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.05377934410682862</v>
+        <v>-0.04707667809256733</v>
       </c>
       <c r="C19">
-        <v>0.04917399228989155</v>
+        <v>-0.04504786722106752</v>
       </c>
       <c r="D19">
-        <v>-0.0001331220298548121</v>
+        <v>-0.001651366415377883</v>
       </c>
       <c r="E19">
-        <v>-0.07842867626843329</v>
+        <v>-0.02357118467450317</v>
       </c>
       <c r="F19">
-        <v>-0.001535703528220036</v>
+        <v>0.08275130503483895</v>
       </c>
       <c r="G19">
-        <v>0.03158253941443737</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.005444523196535127</v>
+      </c>
+      <c r="H19">
+        <v>0.07964654225121062</v>
+      </c>
+      <c r="I19">
+        <v>0.04216025273646444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03507184406383997</v>
+        <v>-0.01722605369553279</v>
       </c>
       <c r="C20">
-        <v>0.0438810342060563</v>
+        <v>-0.02879536318408426</v>
       </c>
       <c r="D20">
-        <v>0.0141779658558711</v>
+        <v>0.00619378846250923</v>
       </c>
       <c r="E20">
-        <v>-0.06682197807583769</v>
+        <v>-0.02194466087463219</v>
       </c>
       <c r="F20">
-        <v>-0.007296013156338182</v>
+        <v>0.06792482943180665</v>
       </c>
       <c r="G20">
-        <v>0.01369518952774657</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01164319739743792</v>
+      </c>
+      <c r="H20">
+        <v>0.06875499267472414</v>
+      </c>
+      <c r="I20">
+        <v>0.037068833378786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03474312097068131</v>
+        <v>-0.02794512926663172</v>
       </c>
       <c r="C21">
-        <v>0.03207870718093926</v>
+        <v>-0.02927300146011944</v>
       </c>
       <c r="D21">
-        <v>0.003059516825057331</v>
+        <v>0.01240928207255703</v>
       </c>
       <c r="E21">
-        <v>-0.1094771314074591</v>
+        <v>-0.008204442892726115</v>
       </c>
       <c r="F21">
-        <v>0.03007687189096804</v>
+        <v>0.08087727228231269</v>
       </c>
       <c r="G21">
-        <v>-0.04079367577731702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03933186941466735</v>
+      </c>
+      <c r="H21">
+        <v>0.0268470436145253</v>
+      </c>
+      <c r="I21">
+        <v>-0.01173174910385833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04996392722885789</v>
+        <v>-0.04124164156595241</v>
       </c>
       <c r="C24">
-        <v>0.02459680463863999</v>
+        <v>-0.03063099166390189</v>
       </c>
       <c r="D24">
-        <v>-0.004414578643969714</v>
+        <v>-0.0003387721950126442</v>
       </c>
       <c r="E24">
-        <v>-0.04374022158334281</v>
+        <v>-0.01137284531238723</v>
       </c>
       <c r="F24">
-        <v>-0.01011344154656663</v>
+        <v>0.03790237402589609</v>
       </c>
       <c r="G24">
-        <v>0.0003475025605378324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.0009496278394986084</v>
+      </c>
+      <c r="H24">
+        <v>0.002862735661546673</v>
+      </c>
+      <c r="I24">
+        <v>-0.004585924905253047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0517752834091679</v>
+        <v>-0.04590739959187275</v>
       </c>
       <c r="C25">
-        <v>0.01594161858594627</v>
+        <v>-0.02772204974734117</v>
       </c>
       <c r="D25">
-        <v>-0.002791473265550427</v>
+        <v>-0.001425987263007334</v>
       </c>
       <c r="E25">
-        <v>-0.04201332920074564</v>
+        <v>-0.009971198656592389</v>
       </c>
       <c r="F25">
-        <v>0.001725067999572478</v>
+        <v>0.04277477401540764</v>
       </c>
       <c r="G25">
-        <v>0.001390296138836312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.002547087529143372</v>
+      </c>
+      <c r="H25">
+        <v>-0.001342101569847299</v>
+      </c>
+      <c r="I25">
+        <v>-0.007969207403214664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02087844376998654</v>
+        <v>-0.01698245235348743</v>
       </c>
       <c r="C26">
-        <v>0.03140935582095467</v>
+        <v>-0.02564792036512631</v>
       </c>
       <c r="D26">
-        <v>0.00534409384221832</v>
+        <v>-0.00451051156373868</v>
       </c>
       <c r="E26">
-        <v>-0.03610330831519854</v>
+        <v>-0.003101304823605833</v>
       </c>
       <c r="F26">
-        <v>0.03008449956869073</v>
+        <v>0.04672425929088826</v>
       </c>
       <c r="G26">
-        <v>0.006991818981158952</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02163603133891593</v>
+      </c>
+      <c r="H26">
+        <v>0.03361275162184177</v>
+      </c>
+      <c r="I26">
+        <v>-0.001986526978121585</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1166126166761117</v>
+        <v>-0.07279440829335924</v>
       </c>
       <c r="C27">
-        <v>0.03729320660962945</v>
+        <v>-0.0308077349876173</v>
       </c>
       <c r="D27">
-        <v>0.01693243365142738</v>
+        <v>0.004851085007325911</v>
       </c>
       <c r="E27">
-        <v>-0.09017044431957517</v>
+        <v>-0.03522385696457836</v>
       </c>
       <c r="F27">
-        <v>-0.009759394374559964</v>
+        <v>0.067928328274498</v>
       </c>
       <c r="G27">
-        <v>-0.01678796385624714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02064080023782353</v>
+      </c>
+      <c r="H27">
+        <v>0.01206472042189322</v>
+      </c>
+      <c r="I27">
+        <v>0.02872192904815473</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01697751263479268</v>
+        <v>-0.05158468601133159</v>
       </c>
       <c r="C28">
-        <v>-0.240498752367463</v>
+        <v>0.2342591939318127</v>
       </c>
       <c r="D28">
-        <v>-0.03843192729159301</v>
+        <v>-0.001114425074950447</v>
       </c>
       <c r="E28">
-        <v>-0.05303865083078546</v>
+        <v>0.06146296390159523</v>
       </c>
       <c r="F28">
-        <v>0.02628695951244742</v>
+        <v>0.0584942236313748</v>
       </c>
       <c r="G28">
-        <v>-0.02344160201117519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02731478607832094</v>
+      </c>
+      <c r="H28">
+        <v>-0.003543795412904699</v>
+      </c>
+      <c r="I28">
+        <v>0.1592392179543561</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02407606649394099</v>
+        <v>-0.02336793117400737</v>
       </c>
       <c r="C29">
-        <v>0.02514648732614595</v>
+        <v>-0.0175775800909819</v>
       </c>
       <c r="D29">
-        <v>0.02918343515289952</v>
+        <v>0.008853892003687152</v>
       </c>
       <c r="E29">
-        <v>-0.0313452789674491</v>
+        <v>-0.02779909269850838</v>
       </c>
       <c r="F29">
-        <v>0.01625271800184102</v>
+        <v>0.03526037800659585</v>
       </c>
       <c r="G29">
-        <v>0.001902649518376729</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02746935699014855</v>
+      </c>
+      <c r="H29">
+        <v>0.05261752385520228</v>
+      </c>
+      <c r="I29">
+        <v>0.003794949188617168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1140975603669743</v>
+        <v>-0.08822232955240775</v>
       </c>
       <c r="C30">
-        <v>0.02814716589301281</v>
+        <v>-0.0507664180220835</v>
       </c>
       <c r="D30">
-        <v>0.03269247709833198</v>
+        <v>-0.03762082961638958</v>
       </c>
       <c r="E30">
-        <v>-0.1135226823345737</v>
+        <v>-0.0356801618068608</v>
       </c>
       <c r="F30">
-        <v>0.0009035905471128969</v>
+        <v>0.1052397420678141</v>
       </c>
       <c r="G30">
-        <v>0.02006740208911155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01592740410458449</v>
+      </c>
+      <c r="H30">
+        <v>0.01755630655794154</v>
+      </c>
+      <c r="I30">
+        <v>-0.00744508657243934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06741137573784728</v>
+        <v>-0.06227294968539708</v>
       </c>
       <c r="C31">
-        <v>0.01452074660558404</v>
+        <v>-0.02199231663487897</v>
       </c>
       <c r="D31">
-        <v>0.0130135147108992</v>
+        <v>-0.01138529023625871</v>
       </c>
       <c r="E31">
-        <v>0.01945289202582776</v>
+        <v>-0.02455520025250386</v>
       </c>
       <c r="F31">
-        <v>0.04631430740117953</v>
+        <v>0.002163305847190359</v>
       </c>
       <c r="G31">
-        <v>0.03137951977905298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03959185772220965</v>
+      </c>
+      <c r="H31">
+        <v>0.03379545010637467</v>
+      </c>
+      <c r="I31">
+        <v>0.01460528293297172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06192847999088785</v>
+        <v>-0.04164326516142629</v>
       </c>
       <c r="C32">
-        <v>0.04574046411769851</v>
+        <v>-0.05241374731123634</v>
       </c>
       <c r="D32">
-        <v>0.01418911861911932</v>
+        <v>0.015060122764544</v>
       </c>
       <c r="E32">
-        <v>-0.1041510201606696</v>
+        <v>-0.0337086382805351</v>
       </c>
       <c r="F32">
-        <v>-0.0035376022009054</v>
+        <v>0.08604310473836077</v>
       </c>
       <c r="G32">
-        <v>0.02008805626601671</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01240102595188096</v>
+      </c>
+      <c r="H32">
+        <v>0.03855214946216058</v>
+      </c>
+      <c r="I32">
+        <v>0.03003203535189624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06851698599221819</v>
+        <v>-0.0554767933270146</v>
       </c>
       <c r="C33">
-        <v>0.04897016900196909</v>
+        <v>-0.05236785701907996</v>
       </c>
       <c r="D33">
-        <v>0.01357852921182243</v>
+        <v>-0.01908686100053099</v>
       </c>
       <c r="E33">
-        <v>-0.07522171828393327</v>
+        <v>-0.01630501415194859</v>
       </c>
       <c r="F33">
-        <v>0.03822916971836307</v>
+        <v>0.07692022113442701</v>
       </c>
       <c r="G33">
-        <v>-0.01763774502058086</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03356977061888972</v>
+      </c>
+      <c r="H33">
+        <v>0.03880799541306015</v>
+      </c>
+      <c r="I33">
+        <v>-0.000493684847444681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.04692251178404239</v>
+        <v>-0.04351811785468801</v>
       </c>
       <c r="C34">
-        <v>0.02360015317754344</v>
+        <v>-0.03477881891837467</v>
       </c>
       <c r="D34">
-        <v>0.001525370633445632</v>
+        <v>0.004021424743103579</v>
       </c>
       <c r="E34">
-        <v>-0.02807693939186559</v>
+        <v>-0.01873043323072567</v>
       </c>
       <c r="F34">
-        <v>-0.005813292144489257</v>
+        <v>0.0312011037796172</v>
       </c>
       <c r="G34">
-        <v>0.008431213794488608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.001276011216258633</v>
+      </c>
+      <c r="H34">
+        <v>0.009903312113013573</v>
+      </c>
+      <c r="I34">
+        <v>-0.003162819164784934</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0143541731961168</v>
+        <v>-0.01603325674333606</v>
       </c>
       <c r="C36">
-        <v>0.001589580726653806</v>
+        <v>-0.002736096369568724</v>
       </c>
       <c r="D36">
-        <v>0.007421863127804655</v>
+        <v>0.004363710089976399</v>
       </c>
       <c r="E36">
-        <v>-0.02236847128614637</v>
+        <v>-0.01047266681658178</v>
       </c>
       <c r="F36">
-        <v>0.01654391099018956</v>
+        <v>0.02677772749249746</v>
       </c>
       <c r="G36">
-        <v>0.007154519290523074</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02385858533027786</v>
+      </c>
+      <c r="H36">
+        <v>0.03037573907678495</v>
+      </c>
+      <c r="I36">
+        <v>-0.005114090372467803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04970997403510947</v>
+        <v>-0.03418367960162508</v>
       </c>
       <c r="C38">
-        <v>0.01932508904161182</v>
+        <v>-0.01521154629870661</v>
       </c>
       <c r="D38">
-        <v>0.02439311476882807</v>
+        <v>0.003432717237974437</v>
       </c>
       <c r="E38">
-        <v>-0.02324973329287937</v>
+        <v>-0.01405610381566146</v>
       </c>
       <c r="F38">
-        <v>-0.02196084971672491</v>
+        <v>0.04712215933288569</v>
       </c>
       <c r="G38">
-        <v>-0.01906228846647937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02604346046817729</v>
+      </c>
+      <c r="H38">
+        <v>0.0164792475955714</v>
+      </c>
+      <c r="I38">
+        <v>-0.01169842639802808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07391723258959798</v>
+        <v>-0.05508907673960403</v>
       </c>
       <c r="C39">
-        <v>0.02166166993251256</v>
+        <v>-0.04432568975150661</v>
       </c>
       <c r="D39">
-        <v>0.002862684001266801</v>
+        <v>-0.005190958885044126</v>
       </c>
       <c r="E39">
-        <v>-0.04056827604477162</v>
+        <v>-0.01896826877929748</v>
       </c>
       <c r="F39">
-        <v>0.01066227678866765</v>
+        <v>0.05561161126443575</v>
       </c>
       <c r="G39">
-        <v>-0.01015113795119837</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01880294206989355</v>
+      </c>
+      <c r="H39">
+        <v>0.002539983425003683</v>
+      </c>
+      <c r="I39">
+        <v>-0.02526345677324635</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07615095148549872</v>
+        <v>-0.05493276283568085</v>
       </c>
       <c r="C40">
-        <v>0.04775080970991631</v>
+        <v>-0.04170911912989068</v>
       </c>
       <c r="D40">
-        <v>0.01098023395722669</v>
+        <v>-0.02094009884546303</v>
       </c>
       <c r="E40">
-        <v>-0.105657656911458</v>
+        <v>-0.02540138185632643</v>
       </c>
       <c r="F40">
-        <v>0.001359295133229078</v>
+        <v>0.09451267908489608</v>
       </c>
       <c r="G40">
-        <v>-0.03357329112591799</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02427001952872894</v>
+      </c>
+      <c r="H40">
+        <v>0.04928360836634534</v>
+      </c>
+      <c r="I40">
+        <v>0.03659737887715027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.002216028804464306</v>
+        <v>-0.003795050805222268</v>
       </c>
       <c r="C41">
-        <v>0.02252107831560327</v>
+        <v>-0.01252059091223346</v>
       </c>
       <c r="D41">
-        <v>0.02790314181860516</v>
+        <v>-2.290835764994663e-05</v>
       </c>
       <c r="E41">
-        <v>-0.01200481140189517</v>
+        <v>-0.01159518251181164</v>
       </c>
       <c r="F41">
-        <v>0.03055595844289733</v>
+        <v>0.01301994158258513</v>
       </c>
       <c r="G41">
-        <v>-0.005864178158398045</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03420646088699575</v>
+      </c>
+      <c r="H41">
+        <v>0.03191195552754569</v>
+      </c>
+      <c r="I41">
+        <v>0.02638221547032604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1493927076799451</v>
+        <v>-0.2209277025134868</v>
       </c>
       <c r="C42">
-        <v>0.2296116156279451</v>
+        <v>-0.288010107014315</v>
       </c>
       <c r="D42">
-        <v>-0.9223568661978406</v>
+        <v>-0.05522000685895155</v>
       </c>
       <c r="E42">
-        <v>0.1055216261519654</v>
+        <v>0.9005561549005414</v>
       </c>
       <c r="F42">
-        <v>0.08204598466722809</v>
+        <v>-0.1579952230123098</v>
       </c>
       <c r="G42">
-        <v>0.1066350454186039</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.004679744049818047</v>
+      </c>
+      <c r="H42">
+        <v>0.002968200374948293</v>
+      </c>
+      <c r="I42">
+        <v>0.05507770367981125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005628468214071328</v>
+        <v>-0.00692989107764615</v>
       </c>
       <c r="C43">
-        <v>0.02301379798423094</v>
+        <v>-0.01442734005442341</v>
       </c>
       <c r="D43">
-        <v>0.01699403432662556</v>
+        <v>-0.002661746461776559</v>
       </c>
       <c r="E43">
-        <v>-0.03448261070342765</v>
+        <v>-0.01146655256834758</v>
       </c>
       <c r="F43">
-        <v>0.01790581290904021</v>
+        <v>0.02822600784181341</v>
       </c>
       <c r="G43">
-        <v>0.01153976575909644</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02009321198503797</v>
+      </c>
+      <c r="H43">
+        <v>0.03026218964316561</v>
+      </c>
+      <c r="I43">
+        <v>0.01739882868977113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.03998090647144516</v>
+        <v>-0.02795739015664871</v>
       </c>
       <c r="C44">
-        <v>0.05348383646152485</v>
+        <v>-0.0424053807457147</v>
       </c>
       <c r="D44">
-        <v>0.01876583769583781</v>
+        <v>0.001384245742668982</v>
       </c>
       <c r="E44">
-        <v>-0.1258764142956742</v>
+        <v>-0.01210425820657619</v>
       </c>
       <c r="F44">
-        <v>0.07554073072413738</v>
+        <v>0.12151895035284</v>
       </c>
       <c r="G44">
-        <v>-0.03827579667624657</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06115416460572935</v>
+      </c>
+      <c r="H44">
+        <v>0.09975776645799624</v>
+      </c>
+      <c r="I44">
+        <v>0.02978695876571913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.0283097960699455</v>
+        <v>-0.02457217673449415</v>
       </c>
       <c r="C46">
-        <v>0.02765910007526338</v>
+        <v>-0.03386678583434581</v>
       </c>
       <c r="D46">
-        <v>0.03008894399151817</v>
+        <v>-0.003015889273202441</v>
       </c>
       <c r="E46">
-        <v>-0.03356279573351845</v>
+        <v>-0.03275597971559256</v>
       </c>
       <c r="F46">
-        <v>0.03134220555205713</v>
+        <v>0.04954318999433717</v>
       </c>
       <c r="G46">
-        <v>-0.002150773260639313</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0226558166090334</v>
+      </c>
+      <c r="H46">
+        <v>0.05468245523475902</v>
+      </c>
+      <c r="I46">
+        <v>0.00386993999194329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08959727180988561</v>
+        <v>-0.08972755021260435</v>
       </c>
       <c r="C47">
-        <v>0.01366107438563811</v>
+        <v>-0.01780505451801926</v>
       </c>
       <c r="D47">
-        <v>0.01716619394478519</v>
+        <v>-0.005935038419564055</v>
       </c>
       <c r="E47">
-        <v>0.02034010346603944</v>
+        <v>-0.02700204800579621</v>
       </c>
       <c r="F47">
-        <v>0.02277196041973109</v>
+        <v>-0.01001110582749578</v>
       </c>
       <c r="G47">
-        <v>0.01024750922335433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03858553043841409</v>
+      </c>
+      <c r="H47">
+        <v>0.05618538550263548</v>
+      </c>
+      <c r="I47">
+        <v>0.02497027674394122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.0190643556549004</v>
+        <v>-0.02005731510182098</v>
       </c>
       <c r="C48">
-        <v>0.02485662465259105</v>
+        <v>-0.01975385844152255</v>
       </c>
       <c r="D48">
-        <v>0.01545340848035315</v>
+        <v>0.001073360398145277</v>
       </c>
       <c r="E48">
-        <v>-0.02896804193758922</v>
+        <v>-0.01472591603634708</v>
       </c>
       <c r="F48">
-        <v>0.008529300702450665</v>
+        <v>0.0278898066158138</v>
       </c>
       <c r="G48">
-        <v>0.0004969341811338353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.01648585107023114</v>
+      </c>
+      <c r="H48">
+        <v>0.02149138681093311</v>
+      </c>
+      <c r="I48">
+        <v>0.01400911624156234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09167936369797826</v>
+        <v>-0.08871064618275128</v>
       </c>
       <c r="C50">
-        <v>0.03392739864504365</v>
+        <v>-0.03499802257662451</v>
       </c>
       <c r="D50">
-        <v>0.02483065061696288</v>
+        <v>0.00941758623834995</v>
       </c>
       <c r="E50">
-        <v>0.01623917399591578</v>
+        <v>-0.02859406247459561</v>
       </c>
       <c r="F50">
-        <v>0.03424420905817714</v>
+        <v>-0.004148760110602366</v>
       </c>
       <c r="G50">
-        <v>0.0353141165873149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.001103330709970428</v>
+      </c>
+      <c r="H50">
+        <v>0.03749685137613254</v>
+      </c>
+      <c r="I50">
+        <v>-0.0003903445125892193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05423442999290164</v>
+        <v>-0.03942684857091885</v>
       </c>
       <c r="C51">
-        <v>-0.01823824038723953</v>
+        <v>0.006745037774506881</v>
       </c>
       <c r="D51">
-        <v>-0.001116099261215091</v>
+        <v>-0.01247859151115588</v>
       </c>
       <c r="E51">
-        <v>-0.08117489920906643</v>
+        <v>-0.008960483301517851</v>
       </c>
       <c r="F51">
-        <v>0.0688140291345218</v>
+        <v>0.09720447808294999</v>
       </c>
       <c r="G51">
-        <v>-0.002014275862355401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0547944371015325</v>
+      </c>
+      <c r="H51">
+        <v>0.05347691706877421</v>
+      </c>
+      <c r="I51">
+        <v>0.02423262675122256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1407256079464094</v>
+        <v>-0.1256188217741754</v>
       </c>
       <c r="C53">
-        <v>0.01728415728459089</v>
+        <v>-0.0358818679963565</v>
       </c>
       <c r="D53">
-        <v>0.04927767865415338</v>
+        <v>-0.007206713410664775</v>
       </c>
       <c r="E53">
-        <v>0.04740815415595032</v>
+        <v>-0.05623806845384287</v>
       </c>
       <c r="F53">
-        <v>0.02361795605368984</v>
+        <v>-0.04276603866820666</v>
       </c>
       <c r="G53">
-        <v>0.02479619215949086</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02275685803841988</v>
+      </c>
+      <c r="H53">
+        <v>-0.002483537390423768</v>
+      </c>
+      <c r="I53">
+        <v>0.04455182606895605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02692012661500607</v>
+        <v>-0.02542733731561904</v>
       </c>
       <c r="C54">
-        <v>0.005975941575706172</v>
+        <v>-0.001973009838161521</v>
       </c>
       <c r="D54">
-        <v>0.02763819581905232</v>
+        <v>0.004834818725467039</v>
       </c>
       <c r="E54">
-        <v>-0.0362821730551706</v>
+        <v>-0.02687265934346584</v>
       </c>
       <c r="F54">
-        <v>0.04079110334156875</v>
+        <v>0.03550142737416654</v>
       </c>
       <c r="G54">
-        <v>-0.02476921402399696</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0494036373540008</v>
+      </c>
+      <c r="H54">
+        <v>0.04417909654859892</v>
+      </c>
+      <c r="I54">
+        <v>0.02827979054628779</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1046437149174807</v>
+        <v>-0.09939748453138539</v>
       </c>
       <c r="C55">
-        <v>0.00478178126437458</v>
+        <v>-0.02850506067132881</v>
       </c>
       <c r="D55">
-        <v>0.03594943576507067</v>
+        <v>0.01085032392214971</v>
       </c>
       <c r="E55">
-        <v>0.01584282846767183</v>
+        <v>-0.0370555542353132</v>
       </c>
       <c r="F55">
-        <v>-0.03739017794829559</v>
+        <v>-0.02914095617170678</v>
       </c>
       <c r="G55">
-        <v>0.02347931764502887</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.009481273219292249</v>
+      </c>
+      <c r="H55">
+        <v>0.009625385634708055</v>
+      </c>
+      <c r="I55">
+        <v>0.02138281364753224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1760795374187175</v>
+        <v>-0.1667035481692235</v>
       </c>
       <c r="C56">
-        <v>-0.01340762748544521</v>
+        <v>-0.01418399276582748</v>
       </c>
       <c r="D56">
-        <v>0.0856282419223426</v>
+        <v>-0.0003211614030439992</v>
       </c>
       <c r="E56">
-        <v>0.09738936878013178</v>
+        <v>-0.08503649660105184</v>
       </c>
       <c r="F56">
-        <v>-0.05315512710902132</v>
+        <v>-0.08734128441738029</v>
       </c>
       <c r="G56">
-        <v>0.05873291447773019</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02568475020678164</v>
+      </c>
+      <c r="H56">
+        <v>-0.0417843371605551</v>
+      </c>
+      <c r="I56">
+        <v>0.04383254010579153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08678035213652399</v>
+        <v>-0.0648303034986531</v>
       </c>
       <c r="C57">
-        <v>0.03233604398035971</v>
+        <v>-0.03430895430447342</v>
       </c>
       <c r="D57">
-        <v>0.0291736508563777</v>
+        <v>-0.01767628676506802</v>
       </c>
       <c r="E57">
-        <v>-0.04410617772403832</v>
+        <v>-0.009075250569201916</v>
       </c>
       <c r="F57">
-        <v>0.05144300465102011</v>
+        <v>0.06630806672798713</v>
       </c>
       <c r="G57">
-        <v>0.01112888606296361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02536838177086889</v>
+      </c>
+      <c r="H57">
+        <v>0.03413993556597026</v>
+      </c>
+      <c r="I57">
+        <v>-0.00154454397841161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1894854140789141</v>
+        <v>-0.2073979226316458</v>
       </c>
       <c r="C58">
-        <v>0.03607652436781227</v>
+        <v>-0.09063968078740485</v>
       </c>
       <c r="D58">
-        <v>-0.009176749111055201</v>
+        <v>-0.0905439359252188</v>
       </c>
       <c r="E58">
-        <v>-0.1293179369342868</v>
+        <v>0.005350494858113714</v>
       </c>
       <c r="F58">
-        <v>-0.01864350391176834</v>
+        <v>0.2518704281155456</v>
       </c>
       <c r="G58">
-        <v>0.07781810304627915</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1869537908488934</v>
+      </c>
+      <c r="H58">
+        <v>0.3708600606322887</v>
+      </c>
+      <c r="I58">
+        <v>-0.2801540896772249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02331831428243082</v>
+        <v>-0.05175693984604667</v>
       </c>
       <c r="C59">
-        <v>-0.1965251625127244</v>
+        <v>0.1950389286779465</v>
       </c>
       <c r="D59">
-        <v>-0.007987826351322671</v>
+        <v>-0.01766396222112088</v>
       </c>
       <c r="E59">
-        <v>-0.06456372629696203</v>
+        <v>0.02342055194490004</v>
       </c>
       <c r="F59">
-        <v>0.009630517606789775</v>
+        <v>0.07153789207644806</v>
       </c>
       <c r="G59">
-        <v>-0.01038635625441933</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.007003535101508797</v>
+      </c>
+      <c r="H59">
+        <v>-0.02861463955015163</v>
+      </c>
+      <c r="I59">
+        <v>0.058567582859267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1910974084714452</v>
+        <v>-0.1873000219341301</v>
       </c>
       <c r="C60">
-        <v>-0.08572265380674154</v>
+        <v>0.04170308731263799</v>
       </c>
       <c r="D60">
-        <v>0.00795998042090805</v>
+        <v>-0.04849039027030449</v>
       </c>
       <c r="E60">
-        <v>-0.1941495001453897</v>
+        <v>-0.008343401604294393</v>
       </c>
       <c r="F60">
-        <v>0.03889846589574849</v>
+        <v>0.2078632645183628</v>
       </c>
       <c r="G60">
-        <v>-0.03199693911512798</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.05477654785991752</v>
+      </c>
+      <c r="H60">
+        <v>-0.28265203845992</v>
+      </c>
+      <c r="I60">
+        <v>-0.08704856566923239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04454824004639792</v>
+        <v>-0.03693672497869446</v>
       </c>
       <c r="C61">
-        <v>0.01419919579624812</v>
+        <v>-0.02892052986113902</v>
       </c>
       <c r="D61">
-        <v>0.002028287403539279</v>
+        <v>0.0005006311530369458</v>
       </c>
       <c r="E61">
-        <v>-0.0374211467439213</v>
+        <v>-0.009045479993888496</v>
       </c>
       <c r="F61">
-        <v>0.002341101695968325</v>
+        <v>0.03786682711115489</v>
       </c>
       <c r="G61">
-        <v>-0.008199301024965154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01106001949410235</v>
+      </c>
+      <c r="H61">
+        <v>-0.005590773758783202</v>
+      </c>
+      <c r="I61">
+        <v>-0.0347230888744421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04399161507664977</v>
+        <v>-0.0312223333693858</v>
       </c>
       <c r="C63">
-        <v>0.01539831094373599</v>
+        <v>-0.02040799563527655</v>
       </c>
       <c r="D63">
-        <v>0.01760424021721062</v>
+        <v>-0.00182197864156135</v>
       </c>
       <c r="E63">
-        <v>-0.04039561827255467</v>
+        <v>-0.01565804386657633</v>
       </c>
       <c r="F63">
-        <v>0.0192588825320134</v>
+        <v>0.0292798196050696</v>
       </c>
       <c r="G63">
-        <v>0.008218219883851843</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.009602766358600434</v>
+      </c>
+      <c r="H63">
+        <v>0.04986947428597383</v>
+      </c>
+      <c r="I63">
+        <v>0.03765290480091473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.07149384007861395</v>
+        <v>-0.05727381919627441</v>
       </c>
       <c r="C64">
-        <v>0.05376123589692902</v>
+        <v>-0.04472402045988789</v>
       </c>
       <c r="D64">
-        <v>0.05178342590082582</v>
+        <v>0.01431577408789769</v>
       </c>
       <c r="E64">
-        <v>-0.04792077771915735</v>
+        <v>-0.04240480518408136</v>
       </c>
       <c r="F64">
-        <v>0.01018367857690606</v>
+        <v>0.04880089744217694</v>
       </c>
       <c r="G64">
-        <v>-0.06760670464657863</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.05806906018980645</v>
+      </c>
+      <c r="H64">
+        <v>-0.004549585177531812</v>
+      </c>
+      <c r="I64">
+        <v>0.03809017970558836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.01993055051318674</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.01354979547567209</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.006491818725370644</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.006833534440094365</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.000302334249453845</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02116027500234112</v>
+      </c>
+      <c r="H65">
+        <v>-0.00376587829644067</v>
+      </c>
+      <c r="I65">
+        <v>-0.01390288510265248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.08681454580850494</v>
+        <v>-0.06664273932454291</v>
       </c>
       <c r="C66">
-        <v>0.0390342343805497</v>
+        <v>-0.05530921721774597</v>
       </c>
       <c r="D66">
-        <v>0.03825233027371047</v>
+        <v>-0.01379034437492449</v>
       </c>
       <c r="E66">
-        <v>-0.07834551992858223</v>
+        <v>-0.04944826075288003</v>
       </c>
       <c r="F66">
-        <v>0.02471166302339412</v>
+        <v>0.06886071525306635</v>
       </c>
       <c r="G66">
-        <v>-0.01991090741863772</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0144055564189657</v>
+      </c>
+      <c r="H66">
+        <v>0.0003864005512681828</v>
+      </c>
+      <c r="I66">
+        <v>-0.0254993193694576</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05934538594075853</v>
+        <v>-0.0470036700281775</v>
       </c>
       <c r="C67">
-        <v>-0.008807886645847257</v>
+        <v>0.003478745663747661</v>
       </c>
       <c r="D67">
-        <v>0.01496208903074638</v>
+        <v>-0.001818648494340363</v>
       </c>
       <c r="E67">
-        <v>-0.01873660399114198</v>
+        <v>-0.01020910879191918</v>
       </c>
       <c r="F67">
-        <v>-0.01442597878241728</v>
+        <v>0.03639340474824267</v>
       </c>
       <c r="G67">
-        <v>-0.01858808634082427</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03448558939790427</v>
+      </c>
+      <c r="H67">
+        <v>-0.004428410165005025</v>
+      </c>
+      <c r="I67">
+        <v>-0.03580707957665013</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.03556280820733047</v>
+        <v>-0.06048696678873356</v>
       </c>
       <c r="C68">
-        <v>-0.2444124372500617</v>
+        <v>0.2329467309203813</v>
       </c>
       <c r="D68">
-        <v>-0.02093247192772359</v>
+        <v>-0.01733152903441097</v>
       </c>
       <c r="E68">
-        <v>-0.05287018234637653</v>
+        <v>0.03965037595635736</v>
       </c>
       <c r="F68">
-        <v>0.03093093414032652</v>
+        <v>0.05705473394697462</v>
       </c>
       <c r="G68">
-        <v>0.01077979518043386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.002069502817283482</v>
+      </c>
+      <c r="H68">
+        <v>-0.01900214807887681</v>
+      </c>
+      <c r="I68">
+        <v>0.1530202045355487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07139860189191241</v>
+        <v>-0.07157903223338012</v>
       </c>
       <c r="C69">
-        <v>0.01811691692443049</v>
+        <v>-0.01995605860771391</v>
       </c>
       <c r="D69">
-        <v>0.02544023349553223</v>
+        <v>-0.006426094315222307</v>
       </c>
       <c r="E69">
-        <v>0.01446903451202266</v>
+        <v>-0.03232440634585963</v>
       </c>
       <c r="F69">
-        <v>0.02066243771881362</v>
+        <v>-0.0004200868541637753</v>
       </c>
       <c r="G69">
-        <v>0.01961184303432265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02254577009148711</v>
+      </c>
+      <c r="H69">
+        <v>0.0297119020322383</v>
+      </c>
+      <c r="I69">
+        <v>0.0001888549099159635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.02611946627712845</v>
+        <v>-0.05804250136246376</v>
       </c>
       <c r="C71">
-        <v>-0.2789022670318589</v>
+        <v>0.2484619403973386</v>
       </c>
       <c r="D71">
-        <v>-0.03664569459500432</v>
+        <v>-0.02148129335554838</v>
       </c>
       <c r="E71">
-        <v>-0.08282323838156988</v>
+        <v>0.06614377432104707</v>
       </c>
       <c r="F71">
-        <v>0.03279999378398818</v>
+        <v>0.07673583158177338</v>
       </c>
       <c r="G71">
-        <v>0.006346864270418095</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01919011377332174</v>
+      </c>
+      <c r="H71">
+        <v>-0.02760532662998928</v>
+      </c>
+      <c r="I71">
+        <v>0.128553096959581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1223670119208466</v>
+        <v>-0.1226609716198712</v>
       </c>
       <c r="C72">
-        <v>-0.001088307644238502</v>
+        <v>-0.03279177403164759</v>
       </c>
       <c r="D72">
-        <v>0.04140761886046765</v>
+        <v>-0.00653076929570611</v>
       </c>
       <c r="E72">
-        <v>-0.08727953816558626</v>
+        <v>-0.06544518591534539</v>
       </c>
       <c r="F72">
-        <v>-0.02491649397254144</v>
+        <v>0.08870358313529647</v>
       </c>
       <c r="G72">
-        <v>0.01734920059049835</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.04197299452158772</v>
+      </c>
+      <c r="H72">
+        <v>-0.01849722222838317</v>
+      </c>
+      <c r="I72">
+        <v>-0.0972113914250214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2920644228732758</v>
+        <v>-0.2685609788890514</v>
       </c>
       <c r="C73">
-        <v>-0.1644330854411998</v>
+        <v>0.06479595973697704</v>
       </c>
       <c r="D73">
-        <v>-0.05437441274732024</v>
+        <v>-0.08821507424874081</v>
       </c>
       <c r="E73">
-        <v>-0.3390991612207218</v>
+        <v>0.04095065418908878</v>
       </c>
       <c r="F73">
-        <v>-0.008936399954669348</v>
+        <v>0.3094659426518848</v>
       </c>
       <c r="G73">
-        <v>-0.05996630300276331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1485152081452084</v>
+      </c>
+      <c r="H73">
+        <v>-0.4829815694932523</v>
+      </c>
+      <c r="I73">
+        <v>-0.2783798111546656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1601565620235021</v>
+        <v>-0.1493909797271476</v>
       </c>
       <c r="C74">
-        <v>0.01182823648339378</v>
+        <v>-0.03044090482607709</v>
       </c>
       <c r="D74">
-        <v>0.04239661049772461</v>
+        <v>-0.01254725888513049</v>
       </c>
       <c r="E74">
-        <v>0.03610845506984355</v>
+        <v>-0.05222028110826005</v>
       </c>
       <c r="F74">
-        <v>-0.01232223438709134</v>
+        <v>-0.05912386820971814</v>
       </c>
       <c r="G74">
-        <v>0.08186430637937046</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02260922952447551</v>
+      </c>
+      <c r="H74">
+        <v>-0.0283443737237063</v>
+      </c>
+      <c r="I74">
+        <v>0.03019033287875462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2344626236707464</v>
+        <v>-0.2422845790076645</v>
       </c>
       <c r="C75">
-        <v>0.008623523085359523</v>
+        <v>-0.02729311530499897</v>
       </c>
       <c r="D75">
-        <v>0.07797210398685256</v>
+        <v>-0.0287670927173149</v>
       </c>
       <c r="E75">
-        <v>0.1281451677788452</v>
+        <v>-0.1120321620411203</v>
       </c>
       <c r="F75">
-        <v>0.01478664033231959</v>
+        <v>-0.1425740420266723</v>
       </c>
       <c r="G75">
-        <v>0.05017584820429356</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.004478865775205707</v>
+      </c>
+      <c r="H75">
+        <v>-0.02135422612480611</v>
+      </c>
+      <c r="I75">
+        <v>0.08170966400046739</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2478623494093151</v>
+        <v>-0.2642129594164095</v>
       </c>
       <c r="C76">
-        <v>-0.01335308944680156</v>
+        <v>-0.0125570228822626</v>
       </c>
       <c r="D76">
-        <v>0.1101376991452558</v>
+        <v>0.01082825376766991</v>
       </c>
       <c r="E76">
-        <v>0.1275176332517027</v>
+        <v>-0.1372105488226237</v>
       </c>
       <c r="F76">
-        <v>-0.03523726617934824</v>
+        <v>-0.1813630708889363</v>
       </c>
       <c r="G76">
-        <v>0.08278287126910687</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.06011888231772686</v>
+      </c>
+      <c r="H76">
+        <v>-0.04490228596474046</v>
+      </c>
+      <c r="I76">
+        <v>0.05064195497062186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1339377733314407</v>
+        <v>-0.1234179613772932</v>
       </c>
       <c r="C77">
-        <v>0.06677984648117014</v>
+        <v>-0.07578552096149599</v>
       </c>
       <c r="D77">
-        <v>-0.03126307871671254</v>
+        <v>-0.006868045142079179</v>
       </c>
       <c r="E77">
-        <v>-0.1467004652647395</v>
+        <v>0.027523632306001</v>
       </c>
       <c r="F77">
-        <v>-0.008835728486507339</v>
+        <v>0.157580935220152</v>
       </c>
       <c r="G77">
-        <v>-0.05326804818140577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01137797378761275</v>
+      </c>
+      <c r="H77">
+        <v>0.2091923284424454</v>
+      </c>
+      <c r="I77">
+        <v>0.2615246168535595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08498921352007363</v>
+        <v>-0.07341461750608408</v>
       </c>
       <c r="C78">
-        <v>0.05703945008585487</v>
+        <v>-0.07729155437947564</v>
       </c>
       <c r="D78">
-        <v>-0.00856580272886711</v>
+        <v>0.005728338537034301</v>
       </c>
       <c r="E78">
-        <v>-0.05195366097859312</v>
+        <v>-0.01665201728267486</v>
       </c>
       <c r="F78">
-        <v>0.01326015624982396</v>
+        <v>0.07438118322833263</v>
       </c>
       <c r="G78">
-        <v>0.004881427329019811</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.009004325541742802</v>
+      </c>
+      <c r="H78">
+        <v>0.0240572720509654</v>
+      </c>
+      <c r="I78">
+        <v>0.03416174179901769</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.05680166714351961</v>
+        <v>-0.1387803220995805</v>
       </c>
       <c r="C80">
-        <v>0.0265151164979666</v>
+        <v>0.03513860995020901</v>
       </c>
       <c r="D80">
-        <v>-0.0955134947759029</v>
+        <v>0.9744647775582309</v>
       </c>
       <c r="E80">
-        <v>0.06103411483871254</v>
+        <v>0.05599162858090028</v>
       </c>
       <c r="F80">
-        <v>-0.7915748011726518</v>
+        <v>0.04409042574971098</v>
       </c>
       <c r="G80">
-        <v>-0.5459683662342406</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04773272956601964</v>
+      </c>
+      <c r="H80">
+        <v>-0.04887249230882967</v>
+      </c>
+      <c r="I80">
+        <v>-0.04544474382288315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1631877188657017</v>
+        <v>-0.178481033341071</v>
       </c>
       <c r="C81">
-        <v>-0.006770714066017911</v>
+        <v>-0.004675429874360428</v>
       </c>
       <c r="D81">
-        <v>0.05742959348901408</v>
+        <v>-0.007087617700103108</v>
       </c>
       <c r="E81">
-        <v>0.1650313329748137</v>
+        <v>-0.08425811462295729</v>
       </c>
       <c r="F81">
-        <v>-0.01876460202237277</v>
+        <v>-0.1567541125872555</v>
       </c>
       <c r="G81">
-        <v>0.08865362110006636</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02912521936098047</v>
+      </c>
+      <c r="H81">
+        <v>-0.006431136618005929</v>
+      </c>
+      <c r="I81">
+        <v>0.05154258472549835</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09133689757848298</v>
+        <v>-0.06940488253895614</v>
       </c>
       <c r="C83">
-        <v>0.07213268819844666</v>
+        <v>-0.05578158929842084</v>
       </c>
       <c r="D83">
-        <v>-0.05558420579378036</v>
+        <v>-0.01450863357978173</v>
       </c>
       <c r="E83">
-        <v>-0.01697492833141263</v>
+        <v>0.03322199286529377</v>
       </c>
       <c r="F83">
-        <v>0.06444432397895579</v>
+        <v>0.04661363622416029</v>
       </c>
       <c r="G83">
-        <v>-0.02783003172344339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05886008922805274</v>
+      </c>
+      <c r="H83">
+        <v>0.03676620675665797</v>
+      </c>
+      <c r="I83">
+        <v>0.02825493747712998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.237359593615546</v>
+        <v>-0.251025165537501</v>
       </c>
       <c r="C85">
-        <v>0.06249317434683848</v>
+        <v>-0.05640735206811098</v>
       </c>
       <c r="D85">
-        <v>0.07225360356270147</v>
+        <v>-0.007839852834649164</v>
       </c>
       <c r="E85">
-        <v>0.1610539248159916</v>
+        <v>-0.1083138297138847</v>
       </c>
       <c r="F85">
-        <v>-0.04558952113885887</v>
+        <v>-0.1885647414010186</v>
       </c>
       <c r="G85">
-        <v>0.07647001075860152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.02712338880938754</v>
+      </c>
+      <c r="H85">
+        <v>0.02281610565210065</v>
+      </c>
+      <c r="I85">
+        <v>0.0598100629013294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.03777002843751671</v>
+        <v>-0.02200079480454074</v>
       </c>
       <c r="C86">
-        <v>0.05425568013689765</v>
+        <v>-0.0544834748902266</v>
       </c>
       <c r="D86">
-        <v>0.007106779030272859</v>
+        <v>-0.0007167365316384007</v>
       </c>
       <c r="E86">
-        <v>-0.05919557373209209</v>
+        <v>-0.01742896683013178</v>
       </c>
       <c r="F86">
-        <v>-0.007205567611773141</v>
+        <v>0.07470421314651113</v>
       </c>
       <c r="G86">
-        <v>0.01551682726830796</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.003084345172238134</v>
+      </c>
+      <c r="H86">
+        <v>0.07698335678127631</v>
+      </c>
+      <c r="I86">
+        <v>0.02785435016770916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02855084913439388</v>
+        <v>-0.03135888075942603</v>
       </c>
       <c r="C87">
-        <v>-0.05458685590456373</v>
+        <v>0.009609465567676405</v>
       </c>
       <c r="D87">
-        <v>-0.00290791240068669</v>
+        <v>-0.001282024183142457</v>
       </c>
       <c r="E87">
-        <v>-0.09445324187419754</v>
+        <v>-0.003097720834040403</v>
       </c>
       <c r="F87">
-        <v>-0.01082622666095557</v>
+        <v>0.09967171586807266</v>
       </c>
       <c r="G87">
-        <v>0.01590839148491296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02181405249730834</v>
+      </c>
+      <c r="H87">
+        <v>0.01174481052867111</v>
+      </c>
+      <c r="I87">
+        <v>-0.005850666352071532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03822147467600593</v>
+        <v>-0.03054947219942739</v>
       </c>
       <c r="C88">
-        <v>0.02578448554588699</v>
+        <v>-0.0149411923989431</v>
       </c>
       <c r="D88">
-        <v>0.00746564650835153</v>
+        <v>0.009006050776325101</v>
       </c>
       <c r="E88">
-        <v>0.01159359950620556</v>
+        <v>-0.009111358537252189</v>
       </c>
       <c r="F88">
-        <v>0.003989429565970704</v>
+        <v>-0.0121254354266981</v>
       </c>
       <c r="G88">
-        <v>-0.003392991046146498</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04636339358960188</v>
+      </c>
+      <c r="H88">
+        <v>0.0332768654183804</v>
+      </c>
+      <c r="I88">
+        <v>-0.01935703699443601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.03677474816735601</v>
+        <v>-0.0954056282758573</v>
       </c>
       <c r="C89">
-        <v>-0.3827131055400949</v>
+        <v>0.3802945567638597</v>
       </c>
       <c r="D89">
-        <v>-0.09988568704571048</v>
+        <v>-0.04566797895940111</v>
       </c>
       <c r="E89">
-        <v>-0.002443298113552022</v>
+        <v>0.08885122922679972</v>
       </c>
       <c r="F89">
-        <v>0.03772201025862108</v>
+        <v>0.03450885320460128</v>
       </c>
       <c r="G89">
-        <v>-0.004995442726678718</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03886282400778768</v>
+      </c>
+      <c r="H89">
+        <v>0.04932481447088742</v>
+      </c>
+      <c r="I89">
+        <v>0.2430280259110454</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.02950009368261076</v>
+        <v>-0.06529267241598681</v>
       </c>
       <c r="C90">
-        <v>-0.2997397579583584</v>
+        <v>0.3228170310240403</v>
       </c>
       <c r="D90">
-        <v>-0.05842822720772882</v>
+        <v>-0.02026455212765561</v>
       </c>
       <c r="E90">
-        <v>-0.05117888628823868</v>
+        <v>0.07309069173495925</v>
       </c>
       <c r="F90">
-        <v>0.04503096501623545</v>
+        <v>0.03521029965963478</v>
       </c>
       <c r="G90">
-        <v>-0.01042259906932813</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0269588414582605</v>
+      </c>
+      <c r="H90">
+        <v>0.003172641813225074</v>
+      </c>
+      <c r="I90">
+        <v>0.2092651655803109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2800239215267523</v>
+        <v>-0.2901726726742933</v>
       </c>
       <c r="C91">
-        <v>0.0424638522188869</v>
+        <v>-0.04748626552778489</v>
       </c>
       <c r="D91">
-        <v>0.08891379846996557</v>
+        <v>-0.01652070495364929</v>
       </c>
       <c r="E91">
-        <v>0.2710289666176153</v>
+        <v>-0.1019434013686611</v>
       </c>
       <c r="F91">
-        <v>-0.04400130704309338</v>
+        <v>-0.274641670119184</v>
       </c>
       <c r="G91">
-        <v>0.04764402737851035</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02844524472614157</v>
+      </c>
+      <c r="H91">
+        <v>-0.009310067083086715</v>
+      </c>
+      <c r="I91">
+        <v>0.0930556705364515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.07182257188533102</v>
+        <v>-0.1275111487561562</v>
       </c>
       <c r="C92">
-        <v>-0.4061727030428435</v>
+        <v>0.4180441781157356</v>
       </c>
       <c r="D92">
-        <v>-0.1707565419755971</v>
+        <v>-0.003450749074396523</v>
       </c>
       <c r="E92">
-        <v>0.0962665415456614</v>
+        <v>0.1178845063954537</v>
       </c>
       <c r="F92">
-        <v>-0.08856126137229932</v>
+        <v>-0.1082698633756932</v>
       </c>
       <c r="G92">
-        <v>-0.01561009991442541</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.06422742724492557</v>
+      </c>
+      <c r="H92">
+        <v>0.4418059711684515</v>
+      </c>
+      <c r="I92">
+        <v>-0.6126111393211658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0202204678577287</v>
+        <v>-0.07602688765297953</v>
       </c>
       <c r="C93">
-        <v>-0.3678367516305907</v>
+        <v>0.3886197211380632</v>
       </c>
       <c r="D93">
-        <v>-0.08797040883664023</v>
+        <v>-0.03853374299643159</v>
       </c>
       <c r="E93">
-        <v>0.02472213817345497</v>
+        <v>0.1140832526097718</v>
       </c>
       <c r="F93">
-        <v>-0.01169781571574611</v>
+        <v>0.005762134723075313</v>
       </c>
       <c r="G93">
-        <v>-0.02837285380936954</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03888227939930326</v>
+      </c>
+      <c r="H93">
+        <v>-0.02343082976748628</v>
+      </c>
+      <c r="I93">
+        <v>0.1434483763974699</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2764228226499694</v>
+        <v>-0.3096941457587598</v>
       </c>
       <c r="C94">
-        <v>-0.08857364099280381</v>
+        <v>0.03842277276545937</v>
       </c>
       <c r="D94">
-        <v>0.05347230980346106</v>
+        <v>-0.04201557041409019</v>
       </c>
       <c r="E94">
-        <v>0.3670788217271321</v>
+        <v>-0.1302910890058936</v>
       </c>
       <c r="F94">
-        <v>-0.1923649199440013</v>
+        <v>-0.3355858904945404</v>
       </c>
       <c r="G94">
-        <v>0.342166299489336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2133459331949924</v>
+      </c>
+      <c r="H94">
+        <v>0.1158568707608008</v>
+      </c>
+      <c r="I94">
+        <v>0.006817568423405296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1879874851318375</v>
+        <v>-0.1379209680532117</v>
       </c>
       <c r="C95">
-        <v>0.003329455006016318</v>
+        <v>-0.04817611532728437</v>
       </c>
       <c r="D95">
-        <v>0.02332956505215327</v>
+        <v>-0.09571198288705647</v>
       </c>
       <c r="E95">
-        <v>0.3526996994453698</v>
+        <v>-0.04050760880274158</v>
       </c>
       <c r="F95">
-        <v>0.5075837718483078</v>
+        <v>-0.09136386798143588</v>
       </c>
       <c r="G95">
-        <v>-0.6950699928852797</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8998475213320247</v>
+      </c>
+      <c r="H95">
+        <v>-0.1218895394261501</v>
+      </c>
+      <c r="I95">
+        <v>-0.1432963412406559</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2232198021456999</v>
+        <v>-0.2090469269531989</v>
       </c>
       <c r="C98">
-        <v>-0.1017535460001261</v>
+        <v>0.05204558789572924</v>
       </c>
       <c r="D98">
-        <v>-0.02854139868861017</v>
+        <v>-0.06252187669771928</v>
       </c>
       <c r="E98">
-        <v>-0.1011842026676125</v>
+        <v>0.03237015214229147</v>
       </c>
       <c r="F98">
-        <v>0.05318186276919883</v>
+        <v>0.164941290710987</v>
       </c>
       <c r="G98">
-        <v>-0.01795748004894343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.06476663016796816</v>
+      </c>
+      <c r="H98">
+        <v>-0.3251040720204568</v>
+      </c>
+      <c r="I98">
+        <v>-0.1633752219230573</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02399732368258966</v>
+        <v>-0.01740160313028482</v>
       </c>
       <c r="C101">
-        <v>0.02484768110025563</v>
+        <v>-0.02703325778594529</v>
       </c>
       <c r="D101">
-        <v>0.03051914401488725</v>
+        <v>0.004586798711172188</v>
       </c>
       <c r="E101">
-        <v>-0.0321903028102006</v>
+        <v>-0.03526764954693001</v>
       </c>
       <c r="F101">
-        <v>0.01595924940236379</v>
+        <v>0.06572195348237189</v>
       </c>
       <c r="G101">
-        <v>0.001796105672365198</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01086998202905805</v>
+      </c>
+      <c r="H101">
+        <v>0.1133575933178477</v>
+      </c>
+      <c r="I101">
+        <v>-0.06513038396793885</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1117227165467972</v>
+        <v>-0.1216492923037061</v>
       </c>
       <c r="C102">
-        <v>0.02588104541526759</v>
+        <v>-0.02365988671316587</v>
       </c>
       <c r="D102">
-        <v>0.04325946868055697</v>
+        <v>0.003231743876069308</v>
       </c>
       <c r="E102">
-        <v>0.09474012984332311</v>
+        <v>-0.05621074717687533</v>
       </c>
       <c r="F102">
-        <v>-0.02013403875405665</v>
+        <v>-0.1047129665365376</v>
       </c>
       <c r="G102">
-        <v>-0.001010901949207191</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.009430933639438055</v>
+      </c>
+      <c r="H102">
+        <v>-0.01206695307025671</v>
+      </c>
+      <c r="I102">
+        <v>0.0618089978581957</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02118028898349034</v>
+        <v>-0.02978167348290539</v>
       </c>
       <c r="C103">
-        <v>0.004736661935328594</v>
+        <v>-0.006834727434061979</v>
       </c>
       <c r="D103">
-        <v>0.01021273263807592</v>
+        <v>0.008601247557847438</v>
       </c>
       <c r="E103">
-        <v>0.033430650951001</v>
+        <v>-0.02062997337464017</v>
       </c>
       <c r="F103">
-        <v>-8.876223698150345e-05</v>
+        <v>-0.02653684235804066</v>
       </c>
       <c r="G103">
-        <v>0.01119766155388163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.009894180473954257</v>
+      </c>
+      <c r="H103">
+        <v>0.01332856896423082</v>
+      </c>
+      <c r="I103">
+        <v>0.02373021105727195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
